--- a/output.xlsx
+++ b/output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0. Program Files\2. Default Storage\1. Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5. Interests\Computers and Tech\GitHub\mastermind\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
+    <sheet name="heatmap" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Iterations :1000</t>
   </si>
@@ -38,12 +39,18 @@
   <si>
     <t>Guesses Per Game</t>
   </si>
+  <si>
+    <t>Colors \Slots</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +181,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -520,8 +534,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -679,19 +694,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.5189999999999999</c:v>
+                  <c:v>1.5049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.97</c:v>
+                  <c:v>2.0139999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5019999999999998</c:v>
+                  <c:v>2.4710000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9510000000000001</c:v>
+                  <c:v>3.004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4550000000000001</c:v>
+                  <c:v>3.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,19 +767,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.952</c:v>
+                  <c:v>2.024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6629999999999998</c:v>
+                  <c:v>2.637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.266</c:v>
+                  <c:v>3.2909999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9510000000000001</c:v>
+                  <c:v>3.992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5780000000000003</c:v>
+                  <c:v>4.5540000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,19 +840,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.5979999999999999</c:v>
+                  <c:v>2.7010000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3420000000000001</c:v>
+                  <c:v>3.2709999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9260000000000002</c:v>
+                  <c:v>3.927</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.58</c:v>
+                  <c:v>4.5579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1970000000000001</c:v>
+                  <c:v>5.2590000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,19 +889,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.2930000000000001</c:v>
+                  <c:v>3.218</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.923</c:v>
+                  <c:v>3.948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.468</c:v>
+                  <c:v>4.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1230000000000002</c:v>
+                  <c:v>5.0830000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7519999999999998</c:v>
+                  <c:v>5.7590000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,19 +938,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.931</c:v>
+                  <c:v>3.9039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4429999999999996</c:v>
+                  <c:v>4.4420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0129999999999999</c:v>
+                  <c:v>5.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.556</c:v>
+                  <c:v>5.5739999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2720000000000002</c:v>
+                  <c:v>6.2679999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,6 +959,55 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-112B-4DAA-8895-7549D4EBD38D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>6 Slots</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>output!$C$30:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6619999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C1E-48B5-9AF9-BEF695BE3A30}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2030,11 +2094,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2072,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1.5189999999999999</v>
+        <v>1.5049999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2083,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1.97</v>
+        <v>2.0139999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2094,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>2.5019999999999998</v>
+        <v>2.4710000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2105,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>2.9510000000000001</v>
+        <v>3.004</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2116,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3.4550000000000001</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2127,7 +2189,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>1.952</v>
+        <v>2.024</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2138,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>2.6629999999999998</v>
+        <v>2.637</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2149,7 +2211,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>3.266</v>
+        <v>3.2909999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2160,7 +2222,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>3.9510000000000001</v>
+        <v>3.992</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2171,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>4.5780000000000003</v>
+        <v>4.5540000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2182,7 +2244,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>2.5979999999999999</v>
+        <v>2.7010000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2193,7 +2255,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>3.3420000000000001</v>
+        <v>3.2709999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2204,7 +2266,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>3.9260000000000002</v>
+        <v>3.927</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2215,7 +2277,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>4.58</v>
+        <v>4.5579999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2226,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>5.1970000000000001</v>
+        <v>5.2590000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2237,7 +2299,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>3.2930000000000001</v>
+        <v>3.218</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2248,7 +2310,7 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>3.923</v>
+        <v>3.948</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2259,7 +2321,7 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>4.468</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2270,7 +2332,7 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>5.1230000000000002</v>
+        <v>5.0830000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2281,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>5.7519999999999998</v>
+        <v>5.7590000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2292,7 +2354,7 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>3.931</v>
+        <v>3.9039999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2303,7 +2365,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>4.4429999999999996</v>
+        <v>4.4420000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2314,7 +2376,7 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>5.0129999999999999</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2325,7 +2387,7 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>5.556</v>
+        <v>5.5739999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2336,11 +2398,264 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>6.2720000000000002</v>
+        <v>6.2679999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>4.4820000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>5.5570000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>6.1470000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>6.6619999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="5" max="7" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="array" ref="B3">INDEX(output!$C$5:$C$34,MATCH(heatmap!B$2&amp;heatmap!$A3,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="array" ref="C3">INDEX(output!$C$5:$C$34,MATCH(heatmap!C$2&amp;heatmap!$A3,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>2.024</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="array" ref="D3">INDEX(output!$C$5:$C$34,MATCH(heatmap!D$2&amp;heatmap!$A3,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>2.7010000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="array" ref="E3">INDEX(output!$C$5:$C$34,MATCH(heatmap!E$2&amp;heatmap!$A3,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>3.218</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="array" ref="F3">INDEX(output!$C$5:$C$34,MATCH(heatmap!F$2&amp;heatmap!$A3,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>3.9039999999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="array" ref="G3">INDEX(output!$C$5:$C$34,MATCH(heatmap!G$2&amp;heatmap!$A3,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>4.4820000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="array" ref="B4">INDEX(output!$C$5:$C$34,MATCH(heatmap!B$2&amp;heatmap!$A4,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="array" ref="C4">INDEX(output!$C$5:$C$34,MATCH(heatmap!C$2&amp;heatmap!$A4,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>2.637</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="array" ref="D4">INDEX(output!$C$5:$C$34,MATCH(heatmap!D$2&amp;heatmap!$A4,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>3.2709999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="array" ref="E4">INDEX(output!$C$5:$C$34,MATCH(heatmap!E$2&amp;heatmap!$A4,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>3.948</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="array" ref="F4">INDEX(output!$C$5:$C$34,MATCH(heatmap!F$2&amp;heatmap!$A4,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>4.4420000000000002</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="array" ref="G4">INDEX(output!$C$5:$C$34,MATCH(heatmap!G$2&amp;heatmap!$A4,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="array" ref="B5">INDEX(output!$C$5:$C$34,MATCH(heatmap!B$2&amp;heatmap!$A5,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>2.4710000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="array" ref="C5">INDEX(output!$C$5:$C$34,MATCH(heatmap!C$2&amp;heatmap!$A5,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="array" ref="D5">INDEX(output!$C$5:$C$34,MATCH(heatmap!D$2&amp;heatmap!$A5,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>3.927</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="array" ref="E5">INDEX(output!$C$5:$C$34,MATCH(heatmap!E$2&amp;heatmap!$A5,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>4.57</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="array" ref="F5">INDEX(output!$C$5:$C$34,MATCH(heatmap!F$2&amp;heatmap!$A5,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>5.07</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="array" ref="G5">INDEX(output!$C$5:$C$34,MATCH(heatmap!G$2&amp;heatmap!$A5,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>5.5570000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="array" ref="B6">INDEX(output!$C$5:$C$34,MATCH(heatmap!B$2&amp;heatmap!$A6,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>3.004</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="array" ref="C6">INDEX(output!$C$5:$C$34,MATCH(heatmap!C$2&amp;heatmap!$A6,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>3.992</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="array" ref="D6">INDEX(output!$C$5:$C$34,MATCH(heatmap!D$2&amp;heatmap!$A6,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="array" ref="E6">INDEX(output!$C$5:$C$34,MATCH(heatmap!E$2&amp;heatmap!$A6,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>5.0830000000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="array" ref="F6">INDEX(output!$C$5:$C$34,MATCH(heatmap!F$2&amp;heatmap!$A6,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>5.5739999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="array" ref="G6">INDEX(output!$C$5:$C$34,MATCH(heatmap!G$2&amp;heatmap!$A6,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>6.1470000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="array" ref="B7">INDEX(output!$C$5:$C$34,MATCH(heatmap!B$2&amp;heatmap!$A7,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>3.49</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="array" ref="C7">INDEX(output!$C$5:$C$34,MATCH(heatmap!C$2&amp;heatmap!$A7,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>4.5540000000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="array" ref="D7">INDEX(output!$C$5:$C$34,MATCH(heatmap!D$2&amp;heatmap!$A7,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>5.2590000000000003</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="array" ref="E7">INDEX(output!$C$5:$C$34,MATCH(heatmap!E$2&amp;heatmap!$A7,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>5.7590000000000003</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="array" ref="F7">INDEX(output!$C$5:$C$34,MATCH(heatmap!F$2&amp;heatmap!$A7,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>6.2679999999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="array" ref="G7">INDEX(output!$C$5:$C$34,MATCH(heatmap!G$2&amp;heatmap!$A7,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <v>6.6619999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:G7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -1206,7 +1206,1295 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 Slot</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0139999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D3BD-4F87-8BBE-F123BD5CA498}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 Slots</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5540000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D3BD-4F87-8BBE-F123BD5CA498}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3 Slots</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.7010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.927</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2590000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D3BD-4F87-8BBE-F123BD5CA498}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4 Slots</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7590000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D3BD-4F87-8BBE-F123BD5CA498}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5 Slots</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2679999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-D3BD-4F87-8BBE-F123BD5CA498}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>6 Slots</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6619999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-D3BD-4F87-8BBE-F123BD5CA498}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="316090128"/>
+        <c:axId val="314933464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="316090128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Colors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314933464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="314933464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Expected</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Guesses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316090128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2 Colors</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4820000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-515B-4642-9F84-51144F621C3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3 Colors</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0139999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.948</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-515B-4642-9F84-51144F621C3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4 Colors</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.4710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.927</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5570000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-515B-4642-9F84-51144F621C3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>5 Colors</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1470000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-515B-4642-9F84-51144F621C3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>6 Colors</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5540000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6619999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-515B-4642-9F84-51144F621C3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="316090128"/>
+        <c:axId val="314933464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="316090128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Slots</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314933464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="314933464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Expected Guesses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316090128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1762,20 +3050,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1789,6 +4109,75 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2466,7 +4855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2484,18 +4875,23 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <f>B2+1</f>
         <v>2</v>
       </c>
       <c r="D2">
+        <f t="shared" ref="D2:G2" si="0">C2+1</f>
         <v>3</v>
       </c>
       <c r="E2">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G2">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2530,6 +4926,7 @@
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -2559,6 +4956,7 @@
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
+        <f t="shared" ref="A5:A7" si="1">A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -2588,6 +4986,7 @@
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -2617,6 +5016,7 @@
     </row>
     <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -2657,5 +5057,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Iterations :1000</t>
   </si>
@@ -41,6 +41,18 @@
   </si>
   <si>
     <t>Colors \Slots</t>
+  </si>
+  <si>
+    <t>Diagonals</t>
+  </si>
+  <si>
+    <t>100 simulations</t>
+  </si>
+  <si>
+    <t>100 simulations (very quick)</t>
+  </si>
+  <si>
+    <t>100 simulations (not as quick)</t>
   </si>
 </sst>
 </file>
@@ -534,9 +546,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -762,7 +775,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$C$10:$C$14</c:f>
+              <c:f>output!$C$11:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -835,7 +848,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$C$15:$C$19</c:f>
+              <c:f>output!$C$17:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -884,7 +897,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>output!$C$20:$C$24</c:f>
+              <c:f>output!$C$23:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -933,7 +946,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>output!$C$25:$C$29</c:f>
+              <c:f>output!$C$29:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -982,7 +995,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>output!$C$30:$C$34</c:f>
+              <c:f>output!$C$35:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1227,10 +1240,318 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5540000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D3BD-4F87-8BBE-F123BD5CA498}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.7010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.927</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D3BD-4F87-8BBE-F123BD5CA498}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.415</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D3BD-4F87-8BBE-F123BD5CA498}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9210000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-D3BD-4F87-8BBE-F123BD5CA498}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-D3BD-4F87-8BBE-F123BD5CA498}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>7 Slots</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7368-4E1A-94F5-720BF9CB6A99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="6"/>
           <c:tx>
-            <c:v>1 Slot</c:v>
+            <c:v>8 Slots</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1246,24 +1567,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$B$3:$B$7</c:f>
+              <c:f>heatmap!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.5049999999999999</c:v>
+                  <c:v>5.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0139999999999998</c:v>
+                  <c:v>6.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4710000000000001</c:v>
+                  <c:v>6.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.49</c:v>
+                  <c:v>7.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1271,20 +1589,19 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D3BD-4F87-8BBE-F123BD5CA498}"/>
+              <c16:uniqueId val="{00000001-7368-4E1A-94F5-720BF9CB6A99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2 Slots</c:v>
-          </c:tx>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1295,24 +1612,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$C$3:$C$7</c:f>
+              <c:f>heatmap!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.024</c:v>
+                  <c:v>1.5049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.637</c:v>
+                  <c:v>2.0139999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2909999999999999</c:v>
+                  <c:v>2.4710000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.992</c:v>
+                  <c:v>3.004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5540000000000003</c:v>
+                  <c:v>3.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,203 +1643,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D3BD-4F87-8BBE-F123BD5CA498}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>3 Slots</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>heatmap!$D$3:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.7010000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2709999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.927</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5579999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.2590000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D3BD-4F87-8BBE-F123BD5CA498}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>4 Slots</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>heatmap!$E$3:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.218</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.948</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.57</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0830000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.7590000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-D3BD-4F87-8BBE-F123BD5CA498}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>5 Slots</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>heatmap!$F$3:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.9039999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.4420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5739999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.2679999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-D3BD-4F87-8BBE-F123BD5CA498}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>6 Slots</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>heatmap!$G$3:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.4820000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.96</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5570000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1470000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6619999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-D3BD-4F87-8BBE-F123BD5CA498}"/>
+              <c16:uniqueId val="{00000002-7368-4E1A-94F5-720BF9CB6A99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1852,9 +1979,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>2 Colors</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1869,10 +1993,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$B$3:$G$3</c:f>
+              <c:f>heatmap!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.5049999999999999</c:v>
                 </c:pt>
@@ -1890,6 +2014,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.4820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1904,9 +2034,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>3 Colors</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1921,10 +2048,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$B$4:$G$4</c:f>
+              <c:f>heatmap!$B$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2.0139999999999998</c:v>
                 </c:pt>
@@ -1942,6 +2069,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1956,9 +2089,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>4 Colors</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1973,10 +2103,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$B$5:$G$5</c:f>
+              <c:f>heatmap!$B$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2.4710000000000001</c:v>
                 </c:pt>
@@ -1994,6 +2124,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.5570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2008,9 +2144,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>5 Colors</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2025,10 +2158,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$B$6:$G$6</c:f>
+              <c:f>heatmap!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.004</c:v>
                 </c:pt>
@@ -2046,6 +2179,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6.1470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2060,13 +2199,65 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5540000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-515B-4642-9F84-51144F621C3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
-            <c:v>6 Colors</c:v>
+            <c:v>7 Colors</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2082,22 +2273,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.49</c:v>
+                  <c:v>3.8679999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5540000000000003</c:v>
+                  <c:v>5.2050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2590000000000003</c:v>
+                  <c:v>6.0289999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7590000000000003</c:v>
+                  <c:v>6.415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2679999999999998</c:v>
+                  <c:v>6.9210000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6619999999999999</c:v>
+                  <c:v>7.351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2105,7 +2296,55 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-515B-4642-9F84-51144F621C3F}"/>
+              <c16:uniqueId val="{00000000-0E14-4D2F-9CBD-2E6980DD9B9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB1F-4E37-A59F-2A18B179764D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2414,6 +2653,483 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$C$26:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.351</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6C1-4745-89A0-ECDD0426D0A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$B$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9210000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E6C1-4745-89A0-ECDD0426D0A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$B$24:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E6C1-4745-89A0-ECDD0426D0A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>heatmap!$B$23:$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.570</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>heatmap!$B$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E6C1-4745-89A0-ECDD0426D0A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="363318152"/>
+        <c:axId val="363316840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="363318152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363316840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="363316840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363318152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2534,6 +3250,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3567,6 +4323,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4094,7 +5366,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4121,16 +5393,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4153,16 +5425,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4178,6 +5450,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4483,9 +5785,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4572,277 +5876,675 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>2.024</v>
+        <v>3.8679999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>2.637</v>
+        <v>2.024</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>3.2909999999999999</v>
+        <v>2.637</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>3.992</v>
+        <v>3.2909999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>4.5540000000000003</v>
+        <v>3.992</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
       <c r="C15">
-        <v>2.7010000000000001</v>
+        <v>4.5540000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>3.2709999999999999</v>
+        <v>5.2050000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>3.927</v>
+        <v>2.7010000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>4.5579999999999998</v>
+        <v>3.2709999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>5.2590000000000003</v>
+        <v>3.927</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>3.218</v>
+        <v>4.5579999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
         <v>3</v>
       </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
       <c r="C21">
-        <v>3.948</v>
+        <v>5.2590000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>4.57</v>
+        <v>6.0289999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23">
-        <v>5.0830000000000002</v>
+        <v>3.218</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24">
-        <v>5.7590000000000003</v>
+        <v>3.948</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>3.9039999999999999</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>4.4420000000000002</v>
+        <v>5.0830000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
         <v>4</v>
       </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
       <c r="C27">
-        <v>5.07</v>
+        <v>5.7590000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>5.5739999999999998</v>
+        <v>6.415</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="C29">
-        <v>6.2679999999999998</v>
+        <v>3.9039999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>4.4820000000000002</v>
+        <v>4.4420000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>4.96</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>5.5739999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>6.2679999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>6.9210000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>4.4820000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>4</v>
       </c>
-      <c r="B32">
+      <c r="B37">
         <v>6</v>
       </c>
-      <c r="C32">
+      <c r="C37">
         <v>5.5570000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>5</v>
       </c>
-      <c r="B33">
+      <c r="B38">
         <v>6</v>
       </c>
-      <c r="C33">
+      <c r="C38">
         <v>6.1470000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>6</v>
       </c>
-      <c r="B34">
+      <c r="B39">
         <v>6</v>
       </c>
-      <c r="C34">
+      <c r="C39">
         <v>6.6619999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>7.351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>5.07</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>5.57</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>4.38</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>5.2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>10</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>5.17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>6.1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>6.31</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>6.98</v>
       </c>
     </row>
   </sheetData>
@@ -4853,10 +6555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G7"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4864,189 +6566,683 @@
     <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="3.625" customWidth="1"/>
     <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="7" width="3.625" customWidth="1"/>
+    <col min="5" max="11" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="C2">
-        <f>B2+1</f>
+      <c r="C1">
+        <f>B1+1</f>
         <v>2</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:G2" si="0">C2+1</f>
+      <c r="D1">
+        <f t="shared" ref="D1:K1" si="0">C1+1</f>
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="F1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="G1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <f t="array" ref="B2">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <f t="array" ref="C2">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>2.024</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="array" ref="D2">INDEX(output!$C$5:$C$68,MATCH(heatmap!D$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>2.7010000000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="array" ref="E2">INDEX(output!$C$5:$C$68,MATCH(heatmap!E$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.218</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="array" ref="F2">INDEX(output!$C$5:$C$68,MATCH(heatmap!F$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.9039999999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="array" ref="G2">INDEX(output!$C$5:$C$68,MATCH(heatmap!G$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.4820000000000002</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="array" ref="H2">INDEX(output!$C$5:$C$68,MATCH(heatmap!H$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.07</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="array" ref="I2">INDEX(output!$C$5:$C$68,MATCH(heatmap!I$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.57</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="array" ref="J2">INDEX(output!$C$5:$C$68,MATCH(heatmap!J$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.1</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="array" ref="K2">INDEX(output!$C$5:$C$68,MATCH(heatmap!K$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <f>A2+1</f>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <f t="array" ref="B3">INDEX(output!$C$5:$C$34,MATCH(heatmap!B$2&amp;heatmap!$A3,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>1.5049999999999999</v>
+        <f t="array" ref="B3">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>2.0139999999999998</v>
       </c>
       <c r="C3" s="1">
-        <f t="array" ref="C3">INDEX(output!$C$5:$C$34,MATCH(heatmap!C$2&amp;heatmap!$A3,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>2.024</v>
+        <f t="array" ref="C3">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>2.637</v>
       </c>
       <c r="D3" s="1">
-        <f t="array" ref="D3">INDEX(output!$C$5:$C$34,MATCH(heatmap!D$2&amp;heatmap!$A3,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>2.7010000000000001</v>
+        <f t="array" ref="D3">INDEX(output!$C$5:$C$68,MATCH(heatmap!D$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.2709999999999999</v>
       </c>
       <c r="E3" s="1">
-        <f t="array" ref="E3">INDEX(output!$C$5:$C$34,MATCH(heatmap!E$2&amp;heatmap!$A3,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>3.218</v>
+        <f t="array" ref="E3">INDEX(output!$C$5:$C$68,MATCH(heatmap!E$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.948</v>
       </c>
       <c r="F3" s="1">
-        <f t="array" ref="F3">INDEX(output!$C$5:$C$34,MATCH(heatmap!F$2&amp;heatmap!$A3,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>3.9039999999999999</v>
+        <f t="array" ref="F3">INDEX(output!$C$5:$C$68,MATCH(heatmap!F$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.4420000000000002</v>
       </c>
       <c r="G3" s="1">
-        <f t="array" ref="G3">INDEX(output!$C$5:$C$34,MATCH(heatmap!G$2&amp;heatmap!$A3,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>4.4820000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="array" ref="G3">INDEX(output!$C$5:$C$68,MATCH(heatmap!G$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.96</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="array" ref="H3">INDEX(output!$C$5:$C$68,MATCH(heatmap!H$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.34</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="array" ref="I3">INDEX(output!$C$5:$C$68,MATCH(heatmap!I$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.19</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="array" ref="J3">INDEX(output!$C$5:$C$68,MATCH(heatmap!J$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.3</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="array" ref="K3">INDEX(output!$C$5:$C$68,MATCH(heatmap!K$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>A3+1</f>
-        <v>3</v>
+        <f t="shared" ref="A4:A6" si="1">A3+1</f>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <f t="array" ref="B4">INDEX(output!$C$5:$C$34,MATCH(heatmap!B$2&amp;heatmap!$A4,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>2.0139999999999998</v>
+        <f t="array" ref="B4">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>2.4710000000000001</v>
       </c>
       <c r="C4" s="1">
-        <f t="array" ref="C4">INDEX(output!$C$5:$C$34,MATCH(heatmap!C$2&amp;heatmap!$A4,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>2.637</v>
+        <f t="array" ref="C4">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.2909999999999999</v>
       </c>
       <c r="D4" s="1">
-        <f t="array" ref="D4">INDEX(output!$C$5:$C$34,MATCH(heatmap!D$2&amp;heatmap!$A4,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>3.2709999999999999</v>
+        <f t="array" ref="D4">INDEX(output!$C$5:$C$68,MATCH(heatmap!D$1&amp;heatmap!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.927</v>
       </c>
       <c r="E4" s="1">
-        <f t="array" ref="E4">INDEX(output!$C$5:$C$34,MATCH(heatmap!E$2&amp;heatmap!$A4,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>3.948</v>
+        <f t="array" ref="E4">INDEX(output!$C$5:$C$68,MATCH(heatmap!E$1&amp;heatmap!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.57</v>
       </c>
       <c r="F4" s="1">
-        <f t="array" ref="F4">INDEX(output!$C$5:$C$34,MATCH(heatmap!F$2&amp;heatmap!$A4,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>4.4420000000000002</v>
+        <f t="array" ref="F4">INDEX(output!$C$5:$C$68,MATCH(heatmap!F$1&amp;heatmap!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.07</v>
       </c>
       <c r="G4" s="1">
-        <f t="array" ref="G4">INDEX(output!$C$5:$C$34,MATCH(heatmap!G$2&amp;heatmap!$A4,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>4.96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="array" ref="G4">INDEX(output!$C$5:$C$68,MATCH(heatmap!G$1&amp;heatmap!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.5570000000000004</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="array" ref="H4">INDEX(output!$C$5:$C$68,MATCH(heatmap!H$1&amp;heatmap!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.11</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="array" ref="I4">INDEX(output!$C$5:$C$68,MATCH(heatmap!I$1&amp;heatmap!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.44</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="array" ref="J4">INDEX(output!$C$5:$C$68,MATCH(heatmap!J$1&amp;heatmap!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A5:A7" si="1">A4+1</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <f t="array" ref="B5">INDEX(output!$C$5:$C$34,MATCH(heatmap!B$2&amp;heatmap!$A5,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>2.4710000000000001</v>
+        <f t="array" ref="B5">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.004</v>
       </c>
       <c r="C5" s="1">
-        <f t="array" ref="C5">INDEX(output!$C$5:$C$34,MATCH(heatmap!C$2&amp;heatmap!$A5,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>3.2909999999999999</v>
+        <f t="array" ref="C5">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.992</v>
       </c>
       <c r="D5" s="1">
-        <f t="array" ref="D5">INDEX(output!$C$5:$C$34,MATCH(heatmap!D$2&amp;heatmap!$A5,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>3.927</v>
+        <f t="array" ref="D5">INDEX(output!$C$5:$C$68,MATCH(heatmap!D$1&amp;heatmap!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.5579999999999998</v>
       </c>
       <c r="E5" s="1">
-        <f t="array" ref="E5">INDEX(output!$C$5:$C$34,MATCH(heatmap!E$2&amp;heatmap!$A5,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>4.57</v>
+        <f t="array" ref="E5">INDEX(output!$C$5:$C$68,MATCH(heatmap!E$1&amp;heatmap!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.0830000000000002</v>
       </c>
       <c r="F5" s="1">
-        <f t="array" ref="F5">INDEX(output!$C$5:$C$34,MATCH(heatmap!F$2&amp;heatmap!$A5,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>5.07</v>
+        <f t="array" ref="F5">INDEX(output!$C$5:$C$68,MATCH(heatmap!F$1&amp;heatmap!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.5739999999999998</v>
       </c>
       <c r="G5" s="1">
-        <f t="array" ref="G5">INDEX(output!$C$5:$C$34,MATCH(heatmap!G$2&amp;heatmap!$A5,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>5.5570000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="array" ref="G5">INDEX(output!$C$5:$C$68,MATCH(heatmap!G$1&amp;heatmap!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.1470000000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="array" ref="H5">INDEX(output!$C$5:$C$68,MATCH(heatmap!H$1&amp;heatmap!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.58</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="array" ref="I5">INDEX(output!$C$5:$C$68,MATCH(heatmap!I$1&amp;heatmap!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <f t="array" ref="B6">INDEX(output!$C$5:$C$34,MATCH(heatmap!B$2&amp;heatmap!$A6,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+        <f t="array" ref="B6">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.49</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="array" ref="C6">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.5540000000000003</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="array" ref="D6">INDEX(output!$C$5:$C$68,MATCH(heatmap!D$1&amp;heatmap!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.2590000000000003</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="array" ref="E6">INDEX(output!$C$5:$C$68,MATCH(heatmap!E$1&amp;heatmap!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.7590000000000003</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="array" ref="F6">INDEX(output!$C$5:$C$68,MATCH(heatmap!F$1&amp;heatmap!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.2679999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="array" ref="G6">INDEX(output!$C$5:$C$68,MATCH(heatmap!G$1&amp;heatmap!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.6619999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="array" ref="H6">INDEX(output!$C$5:$C$68,MATCH(heatmap!H$1&amp;heatmap!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.27</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="array" ref="B7">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.8679999999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="array" ref="C7">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.2050000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="array" ref="D7">INDEX(output!$C$5:$C$68,MATCH(heatmap!D$1&amp;heatmap!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.0289999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="array" ref="E7">INDEX(output!$C$5:$C$68,MATCH(heatmap!E$1&amp;heatmap!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.415</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="array" ref="F7">INDEX(output!$C$5:$C$68,MATCH(heatmap!F$1&amp;heatmap!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.9210000000000003</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="array" ref="G7">INDEX(output!$C$5:$C$68,MATCH(heatmap!G$1&amp;heatmap!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.351</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>A7+1</f>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="array" ref="B8">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.38</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="array" ref="C8">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.03</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="array" ref="D8">INDEX(output!$C$5:$C$68,MATCH(heatmap!D$1&amp;heatmap!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.07</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="array" ref="E8">INDEX(output!$C$5:$C$68,MATCH(heatmap!E$1&amp;heatmap!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.15</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="array" ref="F8">INDEX(output!$C$5:$C$68,MATCH(heatmap!F$1&amp;heatmap!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.8</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="array" ref="B9">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A9,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="array" ref="C9">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A9,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.86</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="array" ref="D9">INDEX(output!$C$5:$C$68,MATCH(heatmap!D$1&amp;heatmap!$A9,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.35</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="array" ref="E9">INDEX(output!$C$5:$C$68,MATCH(heatmap!E$1&amp;heatmap!$A9,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.89</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>A9+1</f>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="array" ref="B10">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A10,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.2</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="array" ref="C10">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A10,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.63</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="array" ref="D10">INDEX(output!$C$5:$C$68,MATCH(heatmap!D$1&amp;heatmap!$A10,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.93</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="array" ref="B11">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A11,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.17</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="array" ref="C11">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A11,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.69</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <f t="shared" ref="B16:B25" si="2">B2</f>
+        <v>1.5049999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="C17" s="2">
+        <f>C2</f>
+        <v>2.024</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4710000000000001</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:C26" si="3">C3</f>
+        <v>2.637</v>
+      </c>
+      <c r="D18" s="2">
+        <f>D2</f>
+        <v>2.7010000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <f t="shared" si="2"/>
         <v>3.004</v>
       </c>
-      <c r="C6" s="1">
-        <f t="array" ref="C6">INDEX(output!$C$5:$C$34,MATCH(heatmap!C$2&amp;heatmap!$A6,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+      <c r="C19" s="2">
+        <f t="shared" si="3"/>
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:D26" si="4">D3</f>
+        <v>3.2709999999999999</v>
+      </c>
+      <c r="E19" s="2">
+        <f>E2</f>
+        <v>3.218</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <f t="shared" si="2"/>
+        <v>3.49</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="3"/>
         <v>3.992</v>
       </c>
-      <c r="D6" s="1">
-        <f t="array" ref="D6">INDEX(output!$C$5:$C$34,MATCH(heatmap!D$2&amp;heatmap!$A6,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+      <c r="D20" s="2">
+        <f t="shared" si="4"/>
+        <v>3.927</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" ref="E20:E26" si="5">E3</f>
+        <v>3.948</v>
+      </c>
+      <c r="F20" s="2">
+        <f>F2</f>
+        <v>3.9039999999999999</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <f t="shared" si="2"/>
+        <v>3.8679999999999999</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="3"/>
+        <v>4.5540000000000003</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="4"/>
         <v>4.5579999999999998</v>
       </c>
-      <c r="E6" s="1">
-        <f t="array" ref="E6">INDEX(output!$C$5:$C$34,MATCH(heatmap!E$2&amp;heatmap!$A6,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+      <c r="E21" s="2">
+        <f t="shared" si="5"/>
+        <v>4.57</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" ref="F21:F26" si="6">F3</f>
+        <v>4.4420000000000002</v>
+      </c>
+      <c r="G21" s="2">
+        <f>G2</f>
+        <v>4.4820000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <f t="shared" si="2"/>
+        <v>4.38</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="3"/>
+        <v>5.2050000000000001</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="4"/>
+        <v>5.2590000000000003</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="5"/>
         <v>5.0830000000000002</v>
       </c>
-      <c r="F6" s="1">
-        <f t="array" ref="F6">INDEX(output!$C$5:$C$34,MATCH(heatmap!F$2&amp;heatmap!$A6,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+      <c r="F22" s="2">
+        <f t="shared" si="6"/>
+        <v>5.07</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" ref="G22:G26" si="7">G3</f>
+        <v>4.96</v>
+      </c>
+      <c r="H22" s="2">
+        <f>H2</f>
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <f t="shared" si="2"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="3"/>
+        <v>6.03</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="4"/>
+        <v>6.0289999999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="5"/>
+        <v>5.7590000000000003</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="6"/>
         <v>5.5739999999999998</v>
       </c>
-      <c r="G6" s="1">
-        <f t="array" ref="G6">INDEX(output!$C$5:$C$34,MATCH(heatmap!G$2&amp;heatmap!$A6,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+      <c r="G23" s="2">
+        <f t="shared" si="7"/>
+        <v>5.5570000000000004</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" ref="H23:H26" si="8">H3</f>
+        <v>5.34</v>
+      </c>
+      <c r="I23" s="2">
+        <f>I2</f>
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <f t="shared" si="2"/>
+        <v>5.2</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="3"/>
+        <v>6.86</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="4"/>
+        <v>7.07</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="5"/>
+        <v>6.415</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="6"/>
+        <v>6.2679999999999998</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="7"/>
         <v>6.1470000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="array" ref="B7">INDEX(output!$C$5:$C$34,MATCH(heatmap!B$2&amp;heatmap!$A7,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>3.49</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="array" ref="C7">INDEX(output!$C$5:$C$34,MATCH(heatmap!C$2&amp;heatmap!$A7,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>4.5540000000000003</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="array" ref="D7">INDEX(output!$C$5:$C$34,MATCH(heatmap!D$2&amp;heatmap!$A7,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>5.2590000000000003</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="array" ref="E7">INDEX(output!$C$5:$C$34,MATCH(heatmap!E$2&amp;heatmap!$A7,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>5.7590000000000003</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="array" ref="F7">INDEX(output!$C$5:$C$34,MATCH(heatmap!F$2&amp;heatmap!$A7,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
-        <v>6.2679999999999998</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="array" ref="G7">INDEX(output!$C$5:$C$34,MATCH(heatmap!G$2&amp;heatmap!$A7,output!$B$5:$B$34&amp;output!$A$5:$A$34,0))</f>
+      <c r="H24" s="2">
+        <f t="shared" si="8"/>
+        <v>6.11</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" ref="I24:I26" si="9">I3</f>
+        <v>6.19</v>
+      </c>
+      <c r="J24" s="2">
+        <f>J2</f>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <f t="shared" si="2"/>
+        <v>5.17</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="3"/>
+        <v>7.63</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="4"/>
+        <v>7.35</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="5"/>
+        <v>7.15</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="6"/>
+        <v>6.9210000000000003</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="7"/>
         <v>6.6619999999999999</v>
       </c>
+      <c r="H25" s="2">
+        <f t="shared" si="8"/>
+        <v>6.58</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="9"/>
+        <v>6.44</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" ref="J25:J26" si="10">J3</f>
+        <v>6.3</v>
+      </c>
+      <c r="K25" s="2">
+        <f>K2</f>
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2">
+        <f t="shared" si="3"/>
+        <v>6.69</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="4"/>
+        <v>7.93</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="5"/>
+        <v>7.89</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="6"/>
+        <v>7.8</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="7"/>
+        <v>7.351</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="8"/>
+        <v>7.27</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="9"/>
+        <v>7.26</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="10"/>
+        <v>7.08</v>
+      </c>
+      <c r="K26" s="2">
+        <f>K3</f>
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:G7">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B5:I11 B2:K2 K3 B3:J4">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
-    <sheet name="heatmap" sheetId="2" r:id="rId2"/>
+    <sheet name="guess data" sheetId="3" r:id="rId2"/>
+    <sheet name="runtime data" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Iterations :1000</t>
   </si>
@@ -54,6 +55,27 @@
   <si>
     <t>100 simulations (not as quick)</t>
   </si>
+  <si>
+    <t>Avg runtime</t>
+  </si>
+  <si>
+    <t>runtime was 100 simulations</t>
+  </si>
+  <si>
+    <t>Adds up to 10</t>
+  </si>
+  <si>
+    <t>Adds up to 12</t>
+  </si>
+  <si>
+    <t>Adds up to 13</t>
+  </si>
+  <si>
+    <t>Adds up to 11</t>
+  </si>
+  <si>
+    <t>Bad data for colors = 11; not sure what the program does there but its almost certainly invalid since it can't handle double digits</t>
+  </si>
 </sst>
 </file>
 
@@ -62,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +221,13 @@
     </font>
     <font>
       <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -546,10 +575,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -622,36 +653,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -659,7 +660,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="7"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>1 Slot</c:v>
@@ -667,7 +668,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -678,10 +681,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$A$5:$A$9</c:f>
+              <c:f>'guess data'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -696,16 +699,28 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$C$5:$C$9</c:f>
+              <c:f>'guess data'!$B$2:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.5049999999999999</c:v>
                 </c:pt>
@@ -720,6 +735,18 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,7 +754,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-112B-4DAA-8895-7549D4EBD38D}"/>
+              <c16:uniqueId val="{00000007-CF88-4C4D-BA40-82B926ED6238}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -751,10 +778,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$A$5:$A$9</c:f>
+              <c:f>'guess data'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -769,16 +796,28 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$C$11:$C$15</c:f>
+              <c:f>'guess data'!$C$2:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.024</c:v>
                 </c:pt>
@@ -793,6 +832,18 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.5540000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -800,7 +851,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-112B-4DAA-8895-7549D4EBD38D}"/>
+              <c16:uniqueId val="{00000000-CF88-4C4D-BA40-82B926ED6238}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -824,10 +875,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$A$5:$A$9</c:f>
+              <c:f>'guess data'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -842,16 +893,28 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$C$17:$C$21</c:f>
+              <c:f>'guess data'!$D$2:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.7010000000000001</c:v>
                 </c:pt>
@@ -866,6 +929,18 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.2590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0299999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,7 +948,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-112B-4DAA-8895-7549D4EBD38D}"/>
+              <c16:uniqueId val="{00000001-CF88-4C4D-BA40-82B926ED6238}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -895,12 +970,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'guess data'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$C$23:$C$27</c:f>
+              <c:f>'guess data'!$E$2:$E$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.218</c:v>
                 </c:pt>
@@ -915,6 +1026,15 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.7590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -922,7 +1042,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-112B-4DAA-8895-7549D4EBD38D}"/>
+              <c16:uniqueId val="{00000002-CF88-4C4D-BA40-82B926ED6238}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -944,12 +1064,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'guess data'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$C$29:$C$33</c:f>
+              <c:f>'guess data'!$F$2:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3.9039999999999999</c:v>
                 </c:pt>
@@ -964,6 +1120,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.2679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8869999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -971,7 +1133,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-112B-4DAA-8895-7549D4EBD38D}"/>
+              <c16:uniqueId val="{00000003-CF88-4C4D-BA40-82B926ED6238}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -993,12 +1155,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'guess data'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$C$35:$C$39</c:f>
+              <c:f>'guess data'!$G$2:$G$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4.4820000000000002</c:v>
                 </c:pt>
@@ -1013,6 +1211,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.6619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,485 +1221,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0C1E-48B5-9AF9-BEF695BE3A30}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="316090128"/>
-        <c:axId val="314933464"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="316090128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="314933464"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="314933464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="316090128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>heatmap!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.637</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2909999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.992</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5540000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.2050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D3BD-4F87-8BBE-F123BD5CA498}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>heatmap!$D$2:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.7010000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2709999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.927</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5579999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.2590000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0289999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.07</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D3BD-4F87-8BBE-F123BD5CA498}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>heatmap!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.218</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.948</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.57</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0830000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.7590000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.415</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-D3BD-4F87-8BBE-F123BD5CA498}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>heatmap!$F$2:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.9039999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.4420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5739999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.2679999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.9210000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-D3BD-4F87-8BBE-F123BD5CA498}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>heatmap!$G$2:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.4820000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.96</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5570000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1470000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6619999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.351</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-D3BD-4F87-8BBE-F123BD5CA498}"/>
+              <c16:uniqueId val="{00000004-CF88-4C4D-BA40-82B926ED6238}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:v>7 Slots</c:v>
           </c:tx>
@@ -1516,26 +1245,62 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'guess data'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$H$2:$H$6</c:f>
+              <c:f>'guess data'!$H$2:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.07</c:v>
+                  <c:v>5.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.11</c:v>
+                  <c:v>6.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.58</c:v>
+                  <c:v>6.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.27</c:v>
+                  <c:v>7.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1543,13 +1308,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7368-4E1A-94F5-720BF9CB6A99}"/>
+              <c16:uniqueId val="{00000005-CF88-4C4D-BA40-82B926ED6238}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:v>8 Slots</c:v>
           </c:tx>
@@ -1565,23 +1330,59 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'guess data'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$I$2:$I$5</c:f>
+              <c:f>'guess data'!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.57</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.19</c:v>
+                  <c:v>5.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.44</c:v>
+                  <c:v>6.69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.26</c:v>
+                  <c:v>7.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,17 +1390,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7368-4E1A-94F5-720BF9CB6A99}"/>
+              <c16:uniqueId val="{00000006-CF88-4C4D-BA40-82B926ED6238}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>9 Slots</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -1610,32 +1414,56 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'guess data'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$B$2:$B$8</c:f>
+              <c:f>'guess data'!$J$2:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.5049999999999999</c:v>
+                  <c:v>6.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0139999999999998</c:v>
+                  <c:v>6.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4710000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.49</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8679999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.38</c:v>
+                  <c:v>7.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1643,7 +1471,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7368-4E1A-94F5-720BF9CB6A99}"/>
+              <c16:uniqueId val="{00000000-5AB2-4FA7-8DB2-65402B1BE48D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1956,7 +1784,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1979,6 +1807,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>2 Colors</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1993,10 +1824,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$B$2:$I$2</c:f>
+              <c:f>'guess data'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.5049999999999999</c:v>
                 </c:pt>
@@ -2016,10 +1847,16 @@
                   <c:v>4.4820000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.07</c:v>
+                  <c:v>5.26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.57</c:v>
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2027,13 +1864,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-515B-4642-9F84-51144F621C3F}"/>
+              <c16:uniqueId val="{00000000-0D81-4B81-A62A-949C8906C006}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>3 Colors</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2048,10 +1888,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$B$3:$I$3</c:f>
+              <c:f>'guess data'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.0139999999999998</c:v>
                 </c:pt>
@@ -2074,7 +1914,13 @@
                   <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.19</c:v>
+                  <c:v>5.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2082,13 +1928,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-515B-4642-9F84-51144F621C3F}"/>
+              <c16:uniqueId val="{00000001-0D81-4B81-A62A-949C8906C006}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>4 Colors</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2103,10 +1952,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$B$4:$I$4</c:f>
+              <c:f>'guess data'!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.4710000000000001</c:v>
                 </c:pt>
@@ -2126,10 +1975,13 @@
                   <c:v>5.5570000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.11</c:v>
+                  <c:v>6.09</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.44</c:v>
+                  <c:v>6.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,13 +1989,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-515B-4642-9F84-51144F621C3F}"/>
+              <c16:uniqueId val="{00000002-0D81-4B81-A62A-949C8906C006}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>5 Colors</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2158,7 +2013,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$B$5:$I$5</c:f>
+              <c:f>'guess data'!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2181,10 +2036,10 @@
                   <c:v>6.1470000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.58</c:v>
+                  <c:v>6.85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.26</c:v>
+                  <c:v>7.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2192,13 +2047,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-515B-4642-9F84-51144F621C3F}"/>
+              <c16:uniqueId val="{00000003-0D81-4B81-A62A-949C8906C006}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>6 Colors</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2213,7 +2071,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$B$6:$H$6</c:f>
+              <c:f>'guess data'!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2236,7 +2094,7 @@
                   <c:v>6.6619999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.27</c:v>
+                  <c:v>7.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2244,7 +2102,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-515B-4642-9F84-51144F621C3F}"/>
+              <c16:uniqueId val="{00000004-0D81-4B81-A62A-949C8906C006}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2268,24 +2126,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$B$7:$G$7</c:f>
+              <c:f>'guess data'!$B$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.8679999999999999</c:v>
+                  <c:v>3.9569999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2050000000000001</c:v>
+                  <c:v>5.2229999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0289999999999999</c:v>
+                  <c:v>5.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.415</c:v>
+                  <c:v>6.4580000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9210000000000003</c:v>
+                  <c:v>6.8869999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7.351</c:v>
@@ -2296,13 +2154,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E14-4D2F-9CBD-2E6980DD9B9F}"/>
+              <c16:uniqueId val="{00000005-0D81-4B81-A62A-949C8906C006}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:tx>
+            <c:v>8 Colors</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2319,24 +2180,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$B$8:$F$8</c:f>
+              <c:f>'guess data'!$B$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.38</c:v>
+                  <c:v>4.2699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.03</c:v>
+                  <c:v>6.31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.07</c:v>
+                  <c:v>6.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.15</c:v>
+                  <c:v>7.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8</c:v>
+                  <c:v>7.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2344,7 +2205,100 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB1F-4E37-A59F-2A18B179764D}"/>
+              <c16:uniqueId val="{00000006-0D81-4B81-A62A-949C8906C006}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>9 Colors</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'guess data'!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8669-4E59-B8A4-0544F666CAD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>10 Colors</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'guess data'!$B$10:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8669-4E59-B8A4-0544F666CAD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2653,7 +2607,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2668,6 +2622,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Slots + Colors on X Axis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2706,6 +2685,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'guess data'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adds up to 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2720,36 +2710,36 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$C$26:$K$26</c:f>
+              <c:f>'guess data'!$C$26:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.69</c:v>
+                  <c:v>6.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.93</c:v>
+                  <c:v>8.0299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.89</c:v>
+                  <c:v>7.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8</c:v>
+                  <c:v>7.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.351</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.27</c:v>
+                  <c:v>7.43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.26</c:v>
+                  <c:v>7.46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.08</c:v>
+                  <c:v>7.29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.98</c:v>
+                  <c:v>6.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2757,13 +2747,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E6C1-4745-89A0-ECDD0426D0A1}"/>
+              <c16:uniqueId val="{00000000-A4D6-438E-A6DC-5B98A56F5162}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'guess data'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adds up to 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2778,39 +2779,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$B$25:$K$25</c:f>
+              <c:f>'guess data'!$B$25:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.17</c:v>
+                  <c:v>5.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.63</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.35</c:v>
+                  <c:v>7.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.15</c:v>
+                  <c:v>7.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9210000000000003</c:v>
+                  <c:v>6.8869999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6.6619999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.58</c:v>
+                  <c:v>6.85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.44</c:v>
+                  <c:v>6.69</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3</c:v>
+                  <c:v>6.41</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.31</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2818,13 +2819,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E6C1-4745-89A0-ECDD0426D0A1}"/>
+              <c16:uniqueId val="{00000001-A4D6-438E-A6DC-5B98A56F5162}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'guess data'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adds up to 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2839,21 +2851,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$B$24:$J$24</c:f>
+              <c:f>'guess data'!$B$24:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.2</c:v>
+                  <c:v>5.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.86</c:v>
+                  <c:v>6.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.07</c:v>
+                  <c:v>6.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.415</c:v>
+                  <c:v>6.4580000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.2679999999999998</c:v>
@@ -2862,13 +2874,13 @@
                   <c:v>6.1470000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.11</c:v>
+                  <c:v>6.09</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.19</c:v>
+                  <c:v>5.92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1</c:v>
+                  <c:v>6.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2876,7 +2888,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-E6C1-4745-89A0-ECDD0426D0A1}"/>
+              <c16:uniqueId val="{00000002-A4D6-438E-A6DC-5B98A56F5162}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2885,32 +2897,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>heatmap!$B$23:$I$23</c:f>
+              <c:f>'guess data'!$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.900</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.030</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.029</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.759</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.574</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.557</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.340</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.570</c:v>
+                  <c:v>Adds up to 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2929,18 +2920,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>heatmap!$B$23:$I$23</c:f>
+              <c:f>'guess data'!$B$23:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>4.6500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.03</c:v>
+                  <c:v>6.31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0289999999999999</c:v>
+                  <c:v>5.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.7590000000000003</c:v>
@@ -2955,7 +2946,7 @@
                   <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.57</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2963,7 +2954,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E6C1-4745-89A0-ECDD0426D0A1}"/>
+              <c16:uniqueId val="{00000003-A4D6-438E-A6DC-5B98A56F5162}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2986,6 +2977,65 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Slots'</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> contribution to the total</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3050,6 +3100,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3093,6 +3173,2639 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 Slot</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'runtime data'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9E2-4F83-BC54-05F33FCD52E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 Slots</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'runtime data'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D9E2-4F83-BC54-05F33FCD52E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3 Slots</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'runtime data'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D9E2-4F83-BC54-05F33FCD52E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4 Slots</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'runtime data'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D9E2-4F83-BC54-05F33FCD52E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5 Slots</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'runtime data'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D9E2-4F83-BC54-05F33FCD52E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>6 Slots</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'runtime data'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D9E2-4F83-BC54-05F33FCD52E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>7 Slots</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'runtime data'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D9E2-4F83-BC54-05F33FCD52E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>8 Slots</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'runtime data'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.549999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D9E2-4F83-BC54-05F33FCD52E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>9 Slots</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'runtime data'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$J$2:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D9E2-4F83-BC54-05F33FCD52E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="316090128"/>
+        <c:axId val="314933464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="316090128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Colors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314933464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="314933464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Expected Runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316090128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2 Colors</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CAA-4783-B6E4-2A8C259BA9A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3 Colors</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1CAA-4783-B6E4-2A8C259BA9A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4 Colors</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1CAA-4783-B6E4-2A8C259BA9A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>5 Colors</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.549999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1CAA-4783-B6E4-2A8C259BA9A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>6 Colors</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1CAA-4783-B6E4-2A8C259BA9A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>7 Colors</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1CAA-4783-B6E4-2A8C259BA9A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>8 Colors</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1CAA-4783-B6E4-2A8C259BA9A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>9 Colors</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1CAA-4783-B6E4-2A8C259BA9A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>10 Colors</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$B$10:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1CAA-4783-B6E4-2A8C259BA9A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="316090128"/>
+        <c:axId val="314933464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="316090128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Slots</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314933464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="314933464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Expected Runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316090128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Slots + Colors on</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> X Axis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'runtime data'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adds up to 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$C$26:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D076-4B09-A0C5-3A2CBD145CF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'runtime data'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adds up to 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$B$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D076-4B09-A0C5-3A2CBD145CF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'runtime data'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adds up to 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$B$24:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D076-4B09-A0C5-3A2CBD145CF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'runtime data'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adds up to 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'runtime data'!$B$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D076-4B09-A0C5-3A2CBD145CF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="363318152"/>
+        <c:axId val="363316840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="363318152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Slots'</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> contribution to the total</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363316840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="363316840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363318152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3290,6 +6003,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5354,25 +8147,1059 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5381,6 +9208,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5471,7 +9362,9 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5785,30 +9678,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5818,8 +9717,11 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5829,8 +9731,11 @@
       <c r="C5">
         <v>1.5049999999999999</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5840,8 +9745,11 @@
       <c r="C6">
         <v>2.0139999999999998</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5851,8 +9759,11 @@
       <c r="C7">
         <v>2.4710000000000001</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5862,8 +9773,11 @@
       <c r="C8">
         <v>3.004</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5873,8 +9787,11 @@
       <c r="C9">
         <v>3.49</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5882,10 +9799,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>3.8679999999999999</v>
+        <v>3.9569999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5895,8 +9815,11 @@
       <c r="C11">
         <v>2.024</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -5906,8 +9829,11 @@
       <c r="C12">
         <v>2.637</v>
       </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -5917,8 +9843,11 @@
       <c r="C13">
         <v>3.2909999999999999</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -5928,8 +9857,11 @@
       <c r="C14">
         <v>3.992</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -5939,8 +9871,11 @@
       <c r="C15">
         <v>4.5540000000000003</v>
       </c>
+      <c r="D15">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -5948,10 +9883,13 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>5.2050000000000001</v>
+        <v>5.2229999999999999</v>
+      </c>
+      <c r="D16">
+        <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -5961,8 +9899,11 @@
       <c r="C17">
         <v>2.7010000000000001</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5972,8 +9913,11 @@
       <c r="C18">
         <v>3.2709999999999999</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -5983,8 +9927,11 @@
       <c r="C19">
         <v>3.927</v>
       </c>
+      <c r="D19">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -5994,8 +9941,11 @@
       <c r="C20">
         <v>4.5579999999999998</v>
       </c>
+      <c r="D20">
+        <v>2E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -6005,8 +9955,11 @@
       <c r="C21">
         <v>5.2590000000000003</v>
       </c>
+      <c r="D21">
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7</v>
       </c>
@@ -6014,10 +9967,13 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>6.0289999999999999</v>
+        <v>5.99</v>
+      </c>
+      <c r="D22">
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -6027,8 +9983,11 @@
       <c r="C23">
         <v>3.218</v>
       </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -6038,8 +9997,11 @@
       <c r="C24">
         <v>3.948</v>
       </c>
+      <c r="D24">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -6049,8 +10011,11 @@
       <c r="C25">
         <v>4.57</v>
       </c>
+      <c r="D25">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -6060,8 +10025,11 @@
       <c r="C26">
         <v>5.0830000000000002</v>
       </c>
+      <c r="D26">
+        <v>1.4E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -6071,8 +10039,11 @@
       <c r="C27">
         <v>5.7590000000000003</v>
       </c>
+      <c r="D27">
+        <v>3.5000000000000003E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -6080,10 +10051,13 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>6.415</v>
+        <v>6.4580000000000002</v>
+      </c>
+      <c r="D28">
+        <v>7.8E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -6093,8 +10067,11 @@
       <c r="C29">
         <v>3.9039999999999999</v>
       </c>
+      <c r="D29">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -6104,8 +10081,11 @@
       <c r="C30">
         <v>4.4420000000000002</v>
       </c>
+      <c r="D30">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -6115,8 +10095,11 @@
       <c r="C31">
         <v>5.07</v>
       </c>
+      <c r="D31">
+        <v>2.5000000000000001E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -6126,8 +10109,11 @@
       <c r="C32">
         <v>5.5739999999999998</v>
       </c>
+      <c r="D32">
+        <v>8.5999999999999993E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -6137,8 +10123,11 @@
       <c r="C33">
         <v>6.2679999999999998</v>
       </c>
+      <c r="D33">
+        <v>0.24299999999999999</v>
+      </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -6146,10 +10135,13 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>6.9210000000000003</v>
+        <v>6.8869999999999996</v>
+      </c>
+      <c r="D34">
+        <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -6159,8 +10151,11 @@
       <c r="C35">
         <v>4.4820000000000002</v>
       </c>
+      <c r="D35">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -6170,8 +10165,11 @@
       <c r="C36">
         <v>4.96</v>
       </c>
+      <c r="D36">
+        <v>1.7999999999999999E-2</v>
+      </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -6181,8 +10179,11 @@
       <c r="C37">
         <v>5.5570000000000004</v>
       </c>
+      <c r="D37">
+        <v>0.123</v>
+      </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -6192,8 +10193,11 @@
       <c r="C38">
         <v>6.1470000000000002</v>
       </c>
+      <c r="D38">
+        <v>0.56200000000000006</v>
+      </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
@@ -6203,8 +10207,11 @@
       <c r="C39">
         <v>6.6619999999999999</v>
       </c>
+      <c r="D39">
+        <v>4.8490000000000002</v>
+      </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7</v>
       </c>
@@ -6214,8 +10221,14 @@
       <c r="C40">
         <v>7.351</v>
       </c>
+      <c r="D40">
+        <v>8.36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -6223,13 +10236,16 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>5.07</v>
-      </c>
-      <c r="D41" t="s">
+        <v>5.26</v>
+      </c>
+      <c r="D41">
+        <v>0.01</v>
+      </c>
+      <c r="E41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -6239,8 +10255,11 @@
       <c r="C42">
         <v>5.34</v>
       </c>
+      <c r="D42">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -6248,10 +10267,13 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>6.11</v>
+        <v>6.09</v>
+      </c>
+      <c r="D43">
+        <v>0.92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -6259,10 +10281,13 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>6.58</v>
+        <v>6.85</v>
+      </c>
+      <c r="D44">
+        <v>5.56</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6</v>
       </c>
@@ -6270,10 +10295,13 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>7.27</v>
+        <v>7.43</v>
+      </c>
+      <c r="D45">
+        <v>24.73</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -6281,13 +10309,16 @@
         <v>8</v>
       </c>
       <c r="C46">
-        <v>5.57</v>
-      </c>
-      <c r="D46" t="s">
+        <v>5.75</v>
+      </c>
+      <c r="D46">
+        <v>0.02</v>
+      </c>
+      <c r="E46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -6295,10 +10326,13 @@
         <v>8</v>
       </c>
       <c r="C47">
-        <v>6.19</v>
+        <v>5.92</v>
+      </c>
+      <c r="D47">
+        <v>0.43</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -6306,10 +10340,13 @@
         <v>8</v>
       </c>
       <c r="C48">
-        <v>6.44</v>
+        <v>6.69</v>
+      </c>
+      <c r="D48">
+        <v>5.47</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -6317,10 +10354,13 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>7.26</v>
+        <v>7.46</v>
+      </c>
+      <c r="D49">
+        <v>34.549999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
@@ -6328,13 +10368,16 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>4.38</v>
-      </c>
-      <c r="D50" t="s">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8</v>
       </c>
@@ -6342,10 +10385,13 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>6.03</v>
+        <v>6.31</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>8</v>
       </c>
@@ -6353,10 +10399,13 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>7.07</v>
+        <v>6.85</v>
+      </c>
+      <c r="D52">
+        <v>0.02</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
@@ -6364,10 +10413,13 @@
         <v>4</v>
       </c>
       <c r="C53">
-        <v>7.15</v>
+        <v>7.24</v>
+      </c>
+      <c r="D53">
+        <v>0.21</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8</v>
       </c>
@@ -6375,10 +10427,13 @@
         <v>5</v>
       </c>
       <c r="C54">
-        <v>7.8</v>
+        <v>7.47</v>
+      </c>
+      <c r="D54">
+        <v>1.88</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9</v>
       </c>
@@ -6386,13 +10441,16 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D55" t="s">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>9</v>
       </c>
@@ -6400,10 +10458,13 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>6.86</v>
+        <v>6.36</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>9</v>
       </c>
@@ -6411,10 +10472,13 @@
         <v>3</v>
       </c>
       <c r="C57">
-        <v>7.35</v>
+        <v>7.33</v>
+      </c>
+      <c r="D57">
+        <v>0.03</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>9</v>
       </c>
@@ -6422,10 +10486,13 @@
         <v>4</v>
       </c>
       <c r="C58">
-        <v>7.89</v>
+        <v>7.99</v>
+      </c>
+      <c r="D58">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10</v>
       </c>
@@ -6433,13 +10500,16 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>5.2</v>
-      </c>
-      <c r="D59" t="s">
+        <v>5.68</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10</v>
       </c>
@@ -6447,10 +10517,13 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>7.63</v>
+        <v>7.5</v>
+      </c>
+      <c r="D60">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10</v>
       </c>
@@ -6458,10 +10531,13 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>7.93</v>
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="D61">
+        <v>0.04</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11</v>
       </c>
@@ -6469,13 +10545,16 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>5.17</v>
-      </c>
-      <c r="D62" t="s">
+        <v>5.72</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -6483,10 +10562,13 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>6.69</v>
+        <v>6.35</v>
+      </c>
+      <c r="D63">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -6494,13 +10576,16 @@
         <v>9</v>
       </c>
       <c r="C64">
-        <v>6.1</v>
-      </c>
-      <c r="D64" t="s">
+        <v>6.07</v>
+      </c>
+      <c r="D64">
+        <v>0.02</v>
+      </c>
+      <c r="E64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -6508,10 +10593,13 @@
         <v>9</v>
       </c>
       <c r="C65">
-        <v>6.3</v>
+        <v>6.41</v>
+      </c>
+      <c r="D65">
+        <v>1.05</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
@@ -6519,10 +10607,13 @@
         <v>9</v>
       </c>
       <c r="C66">
-        <v>7.08</v>
+        <v>7.29</v>
+      </c>
+      <c r="D66">
+        <v>21.66</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -6530,13 +10621,16 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>6.31</v>
-      </c>
-      <c r="D67" t="s">
+        <v>6.5</v>
+      </c>
+      <c r="D67">
+        <v>0.06</v>
+      </c>
+      <c r="E67" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -6544,12 +10638,84 @@
         <v>10</v>
       </c>
       <c r="C68">
-        <v>6.98</v>
+        <v>6.71</v>
+      </c>
+      <c r="D68">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>5.26</v>
+      </c>
+      <c r="D71">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>5.34</v>
+      </c>
+      <c r="D72">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>6.09</v>
+      </c>
+      <c r="D73">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>6.85</v>
+      </c>
+      <c r="D74">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>7.43</v>
+      </c>
+      <c r="D75">
+        <v>24.73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6557,8 +10723,722 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="5" max="11" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <f>B1+1</f>
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:K1" si="0">C1+1</f>
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <f t="array" ref="B2">INDEX(output!$C$5:$C$68,MATCH('guess data'!B$1&amp;'guess data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <f t="array" ref="C2">INDEX(output!$C$5:$C$68,MATCH('guess data'!C$1&amp;'guess data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>2.024</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="array" ref="D2">INDEX(output!$C$5:$C$68,MATCH('guess data'!D$1&amp;'guess data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>2.7010000000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="array" ref="E2">INDEX(output!$C$5:$C$68,MATCH('guess data'!E$1&amp;'guess data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.218</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="array" ref="F2">INDEX(output!$C$5:$C$68,MATCH('guess data'!F$1&amp;'guess data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.9039999999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="array" ref="G2">INDEX(output!$C$5:$C$68,MATCH('guess data'!G$1&amp;'guess data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.4820000000000002</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="array" ref="H2">INDEX(output!$C$5:$C$68,MATCH('guess data'!H$1&amp;'guess data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.26</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="array" ref="I2">INDEX(output!$C$5:$C$68,MATCH('guess data'!I$1&amp;'guess data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.75</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="array" ref="J2">INDEX(output!$C$5:$C$68,MATCH('guess data'!J$1&amp;'guess data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.07</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="array" ref="K2">INDEX(output!$C$5:$C$68,MATCH('guess data'!K$1&amp;'guess data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="array" ref="B3">INDEX(output!$C$5:$C$68,MATCH('guess data'!B$1&amp;'guess data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="array" ref="C3">INDEX(output!$C$5:$C$68,MATCH('guess data'!C$1&amp;'guess data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>2.637</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="array" ref="D3">INDEX(output!$C$5:$C$68,MATCH('guess data'!D$1&amp;'guess data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.2709999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="array" ref="E3">INDEX(output!$C$5:$C$68,MATCH('guess data'!E$1&amp;'guess data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.948</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="array" ref="F3">INDEX(output!$C$5:$C$68,MATCH('guess data'!F$1&amp;'guess data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.4420000000000002</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="array" ref="G3">INDEX(output!$C$5:$C$68,MATCH('guess data'!G$1&amp;'guess data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.96</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="array" ref="H3">INDEX(output!$C$5:$C$68,MATCH('guess data'!H$1&amp;'guess data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.34</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="array" ref="I3">INDEX(output!$C$5:$C$68,MATCH('guess data'!I$1&amp;'guess data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.92</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="array" ref="J3">INDEX(output!$C$5:$C$68,MATCH('guess data'!J$1&amp;'guess data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.41</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="array" ref="K3">INDEX(output!$C$5:$C$68,MATCH('guess data'!K$1&amp;'guess data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A6" si="1">A3+1</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="array" ref="B4">INDEX(output!$C$5:$C$68,MATCH('guess data'!B$1&amp;'guess data'!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>2.4710000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="array" ref="C4">INDEX(output!$C$5:$C$68,MATCH('guess data'!C$1&amp;'guess data'!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="array" ref="D4">INDEX(output!$C$5:$C$68,MATCH('guess data'!D$1&amp;'guess data'!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.927</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="array" ref="E4">INDEX(output!$C$5:$C$68,MATCH('guess data'!E$1&amp;'guess data'!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="array" ref="F4">INDEX(output!$C$5:$C$68,MATCH('guess data'!F$1&amp;'guess data'!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.07</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="array" ref="G4">INDEX(output!$C$5:$C$68,MATCH('guess data'!G$1&amp;'guess data'!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.5570000000000004</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="array" ref="H4">INDEX(output!$C$5:$C$68,MATCH('guess data'!H$1&amp;'guess data'!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.09</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="array" ref="I4">INDEX(output!$C$5:$C$68,MATCH('guess data'!I$1&amp;'guess data'!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.69</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="array" ref="J4">INDEX(output!$C$5:$C$68,MATCH('guess data'!J$1&amp;'guess data'!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="array" ref="B5">INDEX(output!$C$5:$C$68,MATCH('guess data'!B$1&amp;'guess data'!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.004</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="array" ref="C5">INDEX(output!$C$5:$C$68,MATCH('guess data'!C$1&amp;'guess data'!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.992</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="array" ref="D5">INDEX(output!$C$5:$C$68,MATCH('guess data'!D$1&amp;'guess data'!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="array" ref="E5">INDEX(output!$C$5:$C$68,MATCH('guess data'!E$1&amp;'guess data'!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.0830000000000002</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="array" ref="F5">INDEX(output!$C$5:$C$68,MATCH('guess data'!F$1&amp;'guess data'!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.5739999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="array" ref="G5">INDEX(output!$C$5:$C$68,MATCH('guess data'!G$1&amp;'guess data'!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.1470000000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="array" ref="H5">INDEX(output!$C$5:$C$68,MATCH('guess data'!H$1&amp;'guess data'!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.85</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="array" ref="I5">INDEX(output!$C$5:$C$68,MATCH('guess data'!I$1&amp;'guess data'!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="array" ref="B6">INDEX(output!$C$5:$C$68,MATCH('guess data'!B$1&amp;'guess data'!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.49</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="array" ref="C6">INDEX(output!$C$5:$C$68,MATCH('guess data'!C$1&amp;'guess data'!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.5540000000000003</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="array" ref="D6">INDEX(output!$C$5:$C$68,MATCH('guess data'!D$1&amp;'guess data'!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.2590000000000003</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="array" ref="E6">INDEX(output!$C$5:$C$68,MATCH('guess data'!E$1&amp;'guess data'!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.7590000000000003</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="array" ref="F6">INDEX(output!$C$5:$C$68,MATCH('guess data'!F$1&amp;'guess data'!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.2679999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="array" ref="G6">INDEX(output!$C$5:$C$68,MATCH('guess data'!G$1&amp;'guess data'!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.6619999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="array" ref="H6">INDEX(output!$C$5:$C$68,MATCH('guess data'!H$1&amp;'guess data'!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.43</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="array" ref="B7">INDEX(output!$C$5:$C$68,MATCH('guess data'!B$1&amp;'guess data'!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.9569999999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="array" ref="C7">INDEX(output!$C$5:$C$68,MATCH('guess data'!C$1&amp;'guess data'!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.2229999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="array" ref="D7">INDEX(output!$C$5:$C$68,MATCH('guess data'!D$1&amp;'guess data'!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.99</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="array" ref="E7">INDEX(output!$C$5:$C$68,MATCH('guess data'!E$1&amp;'guess data'!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.4580000000000002</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="array" ref="F7">INDEX(output!$C$5:$C$68,MATCH('guess data'!F$1&amp;'guess data'!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.8869999999999996</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="array" ref="G7">INDEX(output!$C$5:$C$68,MATCH('guess data'!G$1&amp;'guess data'!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.351</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>A7+1</f>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="array" ref="B8">INDEX(output!$C$5:$C$68,MATCH('guess data'!B$1&amp;'guess data'!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="array" ref="C8">INDEX(output!$C$5:$C$68,MATCH('guess data'!C$1&amp;'guess data'!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.31</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="array" ref="D8">INDEX(output!$C$5:$C$68,MATCH('guess data'!D$1&amp;'guess data'!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.85</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="array" ref="E8">INDEX(output!$C$5:$C$68,MATCH('guess data'!E$1&amp;'guess data'!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.24</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="array" ref="F8">INDEX(output!$C$5:$C$68,MATCH('guess data'!F$1&amp;'guess data'!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.47</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="array" ref="B9">INDEX(output!$C$5:$C$68,MATCH('guess data'!B$1&amp;'guess data'!$A9,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="array" ref="C9">INDEX(output!$C$5:$C$68,MATCH('guess data'!C$1&amp;'guess data'!$A9,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.36</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="array" ref="D9">INDEX(output!$C$5:$C$68,MATCH('guess data'!D$1&amp;'guess data'!$A9,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.33</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="array" ref="E9">INDEX(output!$C$5:$C$68,MATCH('guess data'!E$1&amp;'guess data'!$A9,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.99</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>A9+1</f>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="array" ref="B10">INDEX(output!$C$5:$C$68,MATCH('guess data'!B$1&amp;'guess data'!$A10,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.68</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="array" ref="C10">INDEX(output!$C$5:$C$68,MATCH('guess data'!C$1&amp;'guess data'!$A10,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.5</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="array" ref="D10">INDEX(output!$C$5:$C$68,MATCH('guess data'!D$1&amp;'guess data'!$A10,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="array" ref="B11">INDEX(output!$C$5:$C$68,MATCH('guess data'!B$1&amp;'guess data'!$A11,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.72</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="array" ref="C11">INDEX(output!$C$5:$C$68,MATCH('guess data'!C$1&amp;'guess data'!$A11,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>6.35</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <f t="shared" ref="B16:B25" si="2">B2</f>
+        <v>1.5049999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="C17" s="2">
+        <f>C2</f>
+        <v>2.024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4710000000000001</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:C26" si="3">C3</f>
+        <v>2.637</v>
+      </c>
+      <c r="D18" s="2">
+        <f>D2</f>
+        <v>2.7010000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <f t="shared" si="2"/>
+        <v>3.004</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="3"/>
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:D26" si="4">D3</f>
+        <v>3.2709999999999999</v>
+      </c>
+      <c r="E19" s="2">
+        <f>E2</f>
+        <v>3.218</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <f t="shared" si="2"/>
+        <v>3.49</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="3"/>
+        <v>3.992</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="4"/>
+        <v>3.927</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" ref="E20:E26" si="5">E3</f>
+        <v>3.948</v>
+      </c>
+      <c r="F20" s="2">
+        <f>F2</f>
+        <v>3.9039999999999999</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9569999999999999</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="3"/>
+        <v>4.5540000000000003</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="4"/>
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="5"/>
+        <v>4.57</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" ref="F21:F26" si="6">F3</f>
+        <v>4.4420000000000002</v>
+      </c>
+      <c r="G21" s="2">
+        <f>G2</f>
+        <v>4.4820000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <f t="shared" si="2"/>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="3"/>
+        <v>5.2229999999999999</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="4"/>
+        <v>5.2590000000000003</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="5"/>
+        <v>5.0830000000000002</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="6"/>
+        <v>5.07</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" ref="G22:G26" si="7">G3</f>
+        <v>4.96</v>
+      </c>
+      <c r="H22" s="2">
+        <f>H2</f>
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="3"/>
+        <v>6.31</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="4"/>
+        <v>5.99</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="5"/>
+        <v>5.7590000000000003</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="6"/>
+        <v>5.5739999999999998</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="7"/>
+        <v>5.5570000000000004</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" ref="H23:H26" si="8">H3</f>
+        <v>5.34</v>
+      </c>
+      <c r="I23" s="2">
+        <f>I2</f>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="2"/>
+        <v>5.68</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="3"/>
+        <v>6.36</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="4"/>
+        <v>6.85</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="5"/>
+        <v>6.4580000000000002</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="6"/>
+        <v>6.2679999999999998</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="7"/>
+        <v>6.1470000000000002</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="8"/>
+        <v>6.09</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" ref="I24:I26" si="9">I3</f>
+        <v>5.92</v>
+      </c>
+      <c r="J24" s="2">
+        <f>J2</f>
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="2"/>
+        <v>5.72</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="4"/>
+        <v>7.33</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="5"/>
+        <v>7.24</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="6"/>
+        <v>6.8869999999999996</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="7"/>
+        <v>6.6619999999999999</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="8"/>
+        <v>6.85</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="9"/>
+        <v>6.69</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" ref="J25:J26" si="10">J3</f>
+        <v>6.41</v>
+      </c>
+      <c r="K25" s="2">
+        <f>K2</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2">
+        <f t="shared" si="3"/>
+        <v>6.35</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="4"/>
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="5"/>
+        <v>7.99</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="6"/>
+        <v>7.47</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="7"/>
+        <v>7.351</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="8"/>
+        <v>7.43</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="9"/>
+        <v>7.46</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="10"/>
+        <v>7.29</v>
+      </c>
+      <c r="K26" s="2">
+        <f>K3</f>
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B5:I11 B2:K2 K3 B3:J4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6618,44 +11498,44 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <f t="array" ref="B2">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>1.5049999999999999</v>
+        <f t="array" ref="B2">INDEX(output!$D$5:$D$68,MATCH('runtime data'!B$1&amp;'runtime data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <f t="array" ref="C2">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>2.024</v>
+        <f t="array" ref="C2">INDEX(output!$D$5:$D$68,MATCH('runtime data'!C$1&amp;'runtime data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <f t="array" ref="D2">INDEX(output!$C$5:$C$68,MATCH(heatmap!D$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>2.7010000000000001</v>
+        <f t="array" ref="D2">INDEX(output!$D$5:$D$68,MATCH('runtime data'!D$1&amp;'runtime data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <f t="array" ref="E2">INDEX(output!$C$5:$C$68,MATCH(heatmap!E$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>3.218</v>
+        <f t="array" ref="E2">INDEX(output!$D$5:$D$68,MATCH('runtime data'!E$1&amp;'runtime data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <f t="array" ref="F2">INDEX(output!$C$5:$C$68,MATCH(heatmap!F$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>3.9039999999999999</v>
+        <f t="array" ref="F2">INDEX(output!$D$5:$D$68,MATCH('runtime data'!F$1&amp;'runtime data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>1E-3</v>
       </c>
       <c r="G2" s="1">
-        <f t="array" ref="G2">INDEX(output!$C$5:$C$68,MATCH(heatmap!G$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>4.4820000000000002</v>
+        <f t="array" ref="G2">INDEX(output!$D$5:$D$68,MATCH('runtime data'!G$1&amp;'runtime data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>1E-3</v>
       </c>
       <c r="H2" s="1">
-        <f t="array" ref="H2">INDEX(output!$C$5:$C$68,MATCH(heatmap!H$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>5.07</v>
+        <f t="array" ref="H2">INDEX(output!$D$5:$D$68,MATCH('runtime data'!H$1&amp;'runtime data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0.01</v>
       </c>
       <c r="I2" s="1">
-        <f t="array" ref="I2">INDEX(output!$C$5:$C$68,MATCH(heatmap!I$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>5.57</v>
+        <f t="array" ref="I2">INDEX(output!$D$5:$D$68,MATCH('runtime data'!I$1&amp;'runtime data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0.02</v>
       </c>
       <c r="J2" s="1">
-        <f t="array" ref="J2">INDEX(output!$C$5:$C$68,MATCH(heatmap!J$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>6.1</v>
+        <f t="array" ref="J2">INDEX(output!$D$5:$D$68,MATCH('runtime data'!J$1&amp;'runtime data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0.02</v>
       </c>
       <c r="K2" s="1">
-        <f t="array" ref="K2">INDEX(output!$C$5:$C$68,MATCH(heatmap!K$1&amp;heatmap!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>6.31</v>
+        <f t="array" ref="K2">INDEX(output!$D$5:$D$68,MATCH('runtime data'!K$1&amp;'runtime data'!$A2,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6664,44 +11544,44 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <f t="array" ref="B3">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>2.0139999999999998</v>
+        <f t="array" ref="B3">INDEX(output!$D$5:$D$68,MATCH('runtime data'!B$1&amp;'runtime data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <f t="array" ref="C3">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>2.637</v>
+        <f t="array" ref="C3">INDEX(output!$D$5:$D$68,MATCH('runtime data'!C$1&amp;'runtime data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <f t="array" ref="D3">INDEX(output!$C$5:$C$68,MATCH(heatmap!D$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>3.2709999999999999</v>
+        <f t="array" ref="D3">INDEX(output!$D$5:$D$68,MATCH('runtime data'!D$1&amp;'runtime data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <f t="array" ref="E3">INDEX(output!$C$5:$C$68,MATCH(heatmap!E$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>3.948</v>
+        <f t="array" ref="E3">INDEX(output!$D$5:$D$68,MATCH('runtime data'!E$1&amp;'runtime data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>1E-3</v>
       </c>
       <c r="F3" s="1">
-        <f t="array" ref="F3">INDEX(output!$C$5:$C$68,MATCH(heatmap!F$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>4.4420000000000002</v>
+        <f t="array" ref="F3">INDEX(output!$D$5:$D$68,MATCH('runtime data'!F$1&amp;'runtime data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G3" s="1">
-        <f t="array" ref="G3">INDEX(output!$C$5:$C$68,MATCH(heatmap!G$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>4.96</v>
+        <f t="array" ref="G3">INDEX(output!$D$5:$D$68,MATCH('runtime data'!G$1&amp;'runtime data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H3" s="1">
-        <f t="array" ref="H3">INDEX(output!$C$5:$C$68,MATCH(heatmap!H$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>5.34</v>
+        <f t="array" ref="H3">INDEX(output!$D$5:$D$68,MATCH('runtime data'!H$1&amp;'runtime data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I3" s="1">
-        <f t="array" ref="I3">INDEX(output!$C$5:$C$68,MATCH(heatmap!I$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>6.19</v>
+        <f t="array" ref="I3">INDEX(output!$D$5:$D$68,MATCH('runtime data'!I$1&amp;'runtime data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0.43</v>
       </c>
       <c r="J3" s="1">
-        <f t="array" ref="J3">INDEX(output!$C$5:$C$68,MATCH(heatmap!J$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>6.3</v>
+        <f t="array" ref="J3">INDEX(output!$D$5:$D$68,MATCH('runtime data'!J$1&amp;'runtime data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>1.05</v>
       </c>
       <c r="K3" s="1">
-        <f t="array" ref="K3">INDEX(output!$C$5:$C$68,MATCH(heatmap!K$1&amp;heatmap!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>6.98</v>
+        <f t="array" ref="K3">INDEX(output!$D$5:$D$68,MATCH('runtime data'!K$1&amp;'runtime data'!$A3,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6710,40 +11590,40 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <f t="array" ref="B4">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>2.4710000000000001</v>
+        <f t="array" ref="B4">INDEX(output!$D$5:$D$68,MATCH('runtime data'!B$1&amp;'runtime data'!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f t="array" ref="C4">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>3.2909999999999999</v>
+        <f t="array" ref="C4">INDEX(output!$D$5:$D$68,MATCH('runtime data'!C$1&amp;'runtime data'!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f t="array" ref="D4">INDEX(output!$C$5:$C$68,MATCH(heatmap!D$1&amp;heatmap!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>3.927</v>
+        <f t="array" ref="D4">INDEX(output!$D$5:$D$68,MATCH('runtime data'!D$1&amp;'runtime data'!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>1E-3</v>
       </c>
       <c r="E4" s="1">
-        <f t="array" ref="E4">INDEX(output!$C$5:$C$68,MATCH(heatmap!E$1&amp;heatmap!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>4.57</v>
+        <f t="array" ref="E4">INDEX(output!$D$5:$D$68,MATCH('runtime data'!E$1&amp;'runtime data'!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F4" s="1">
-        <f t="array" ref="F4">INDEX(output!$C$5:$C$68,MATCH(heatmap!F$1&amp;heatmap!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>5.07</v>
+        <f t="array" ref="F4">INDEX(output!$D$5:$D$68,MATCH('runtime data'!F$1&amp;'runtime data'!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G4" s="1">
-        <f t="array" ref="G4">INDEX(output!$C$5:$C$68,MATCH(heatmap!G$1&amp;heatmap!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>5.5570000000000004</v>
+        <f t="array" ref="G4">INDEX(output!$D$5:$D$68,MATCH('runtime data'!G$1&amp;'runtime data'!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0.123</v>
       </c>
       <c r="H4" s="1">
-        <f t="array" ref="H4">INDEX(output!$C$5:$C$68,MATCH(heatmap!H$1&amp;heatmap!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>6.11</v>
+        <f t="array" ref="H4">INDEX(output!$D$5:$D$68,MATCH('runtime data'!H$1&amp;'runtime data'!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0.92</v>
       </c>
       <c r="I4" s="1">
-        <f t="array" ref="I4">INDEX(output!$C$5:$C$68,MATCH(heatmap!I$1&amp;heatmap!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>6.44</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="array" ref="J4">INDEX(output!$C$5:$C$68,MATCH(heatmap!J$1&amp;heatmap!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>7.08</v>
+        <f t="array" ref="I4">INDEX(output!$D$5:$D$68,MATCH('runtime data'!I$1&amp;'runtime data'!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.47</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="array" ref="J4">INDEX(output!$D$5:$D$68,MATCH('runtime data'!J$1&amp;'runtime data'!$A4,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>21.66</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6752,36 +11632,36 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <f t="array" ref="B5">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>3.004</v>
+        <f t="array" ref="B5">INDEX(output!$D$5:$D$68,MATCH('runtime data'!B$1&amp;'runtime data'!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <f t="array" ref="C5">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>3.992</v>
+        <f t="array" ref="C5">INDEX(output!$D$5:$D$68,MATCH('runtime data'!C$1&amp;'runtime data'!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f t="array" ref="D5">INDEX(output!$C$5:$C$68,MATCH(heatmap!D$1&amp;heatmap!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>4.5579999999999998</v>
+        <f t="array" ref="D5">INDEX(output!$D$5:$D$68,MATCH('runtime data'!D$1&amp;'runtime data'!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>2E-3</v>
       </c>
       <c r="E5" s="1">
-        <f t="array" ref="E5">INDEX(output!$C$5:$C$68,MATCH(heatmap!E$1&amp;heatmap!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>5.0830000000000002</v>
+        <f t="array" ref="E5">INDEX(output!$D$5:$D$68,MATCH('runtime data'!E$1&amp;'runtime data'!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>1.4E-2</v>
       </c>
       <c r="F5" s="1">
-        <f t="array" ref="F5">INDEX(output!$C$5:$C$68,MATCH(heatmap!F$1&amp;heatmap!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>5.5739999999999998</v>
+        <f t="array" ref="F5">INDEX(output!$D$5:$D$68,MATCH('runtime data'!F$1&amp;'runtime data'!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="G5" s="1">
-        <f t="array" ref="G5">INDEX(output!$C$5:$C$68,MATCH(heatmap!G$1&amp;heatmap!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>6.1470000000000002</v>
+        <f t="array" ref="G5">INDEX(output!$D$5:$D$68,MATCH('runtime data'!G$1&amp;'runtime data'!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0.56200000000000006</v>
       </c>
       <c r="H5" s="1">
-        <f t="array" ref="H5">INDEX(output!$C$5:$C$68,MATCH(heatmap!H$1&amp;heatmap!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>6.58</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="array" ref="I5">INDEX(output!$C$5:$C$68,MATCH(heatmap!I$1&amp;heatmap!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>7.26</v>
+        <f t="array" ref="H5">INDEX(output!$D$5:$D$68,MATCH('runtime data'!H$1&amp;'runtime data'!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>5.56</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="array" ref="I5">INDEX(output!$D$5:$D$68,MATCH('runtime data'!I$1&amp;'runtime data'!$A5,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>34.549999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6790,32 +11670,32 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <f t="array" ref="B6">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>3.49</v>
+        <f t="array" ref="B6">INDEX(output!$D$5:$D$68,MATCH('runtime data'!B$1&amp;'runtime data'!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <f t="array" ref="C6">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>4.5540000000000003</v>
+        <f t="array" ref="C6">INDEX(output!$D$5:$D$68,MATCH('runtime data'!C$1&amp;'runtime data'!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>1E-3</v>
       </c>
       <c r="D6" s="1">
-        <f t="array" ref="D6">INDEX(output!$C$5:$C$68,MATCH(heatmap!D$1&amp;heatmap!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>5.2590000000000003</v>
+        <f t="array" ref="D6">INDEX(output!$D$5:$D$68,MATCH('runtime data'!D$1&amp;'runtime data'!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E6" s="1">
-        <f t="array" ref="E6">INDEX(output!$C$5:$C$68,MATCH(heatmap!E$1&amp;heatmap!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>5.7590000000000003</v>
+        <f t="array" ref="E6">INDEX(output!$D$5:$D$68,MATCH('runtime data'!E$1&amp;'runtime data'!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F6" s="1">
-        <f t="array" ref="F6">INDEX(output!$C$5:$C$68,MATCH(heatmap!F$1&amp;heatmap!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>6.2679999999999998</v>
+        <f t="array" ref="F6">INDEX(output!$D$5:$D$68,MATCH('runtime data'!F$1&amp;'runtime data'!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0.24299999999999999</v>
       </c>
       <c r="G6" s="1">
-        <f t="array" ref="G6">INDEX(output!$C$5:$C$68,MATCH(heatmap!G$1&amp;heatmap!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>6.6619999999999999</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="array" ref="H6">INDEX(output!$C$5:$C$68,MATCH(heatmap!H$1&amp;heatmap!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>7.27</v>
+        <f t="array" ref="G6">INDEX(output!$D$5:$D$68,MATCH('runtime data'!G$1&amp;'runtime data'!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>4.8490000000000002</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="array" ref="H6">INDEX(output!$D$5:$D$68,MATCH('runtime data'!H$1&amp;'runtime data'!$A6,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>24.73</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -6825,28 +11705,28 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <f t="array" ref="B7">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>3.8679999999999999</v>
+        <f t="array" ref="B7">INDEX(output!$D$5:$D$68,MATCH('runtime data'!B$1&amp;'runtime data'!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <f t="array" ref="C7">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>5.2050000000000001</v>
+        <f t="array" ref="C7">INDEX(output!$D$5:$D$68,MATCH('runtime data'!C$1&amp;'runtime data'!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>1E-3</v>
       </c>
       <c r="D7" s="1">
-        <f t="array" ref="D7">INDEX(output!$C$5:$C$68,MATCH(heatmap!D$1&amp;heatmap!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>6.0289999999999999</v>
+        <f t="array" ref="D7">INDEX(output!$D$5:$D$68,MATCH('runtime data'!D$1&amp;'runtime data'!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E7" s="1">
-        <f t="array" ref="E7">INDEX(output!$C$5:$C$68,MATCH(heatmap!E$1&amp;heatmap!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>6.415</v>
+        <f t="array" ref="E7">INDEX(output!$D$5:$D$68,MATCH('runtime data'!E$1&amp;'runtime data'!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>7.8E-2</v>
       </c>
       <c r="F7" s="1">
-        <f t="array" ref="F7">INDEX(output!$C$5:$C$68,MATCH(heatmap!F$1&amp;heatmap!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>6.9210000000000003</v>
+        <f t="array" ref="F7">INDEX(output!$D$5:$D$68,MATCH('runtime data'!F$1&amp;'runtime data'!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0.64500000000000002</v>
       </c>
       <c r="G7" s="1">
-        <f t="array" ref="G7">INDEX(output!$C$5:$C$68,MATCH(heatmap!G$1&amp;heatmap!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>7.351</v>
+        <f t="array" ref="G7">INDEX(output!$D$5:$D$68,MATCH('runtime data'!G$1&amp;'runtime data'!$A7,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>8.36</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -6857,24 +11737,24 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <f t="array" ref="B8">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>4.38</v>
+        <f t="array" ref="B8">INDEX(output!$D$5:$D$68,MATCH('runtime data'!B$1&amp;'runtime data'!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <f t="array" ref="C8">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>6.03</v>
+        <f t="array" ref="C8">INDEX(output!$D$5:$D$68,MATCH('runtime data'!C$1&amp;'runtime data'!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <f t="array" ref="D8">INDEX(output!$C$5:$C$68,MATCH(heatmap!D$1&amp;heatmap!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>7.07</v>
+        <f t="array" ref="D8">INDEX(output!$D$5:$D$68,MATCH('runtime data'!D$1&amp;'runtime data'!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0.02</v>
       </c>
       <c r="E8" s="1">
-        <f t="array" ref="E8">INDEX(output!$C$5:$C$68,MATCH(heatmap!E$1&amp;heatmap!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>7.15</v>
+        <f t="array" ref="E8">INDEX(output!$D$5:$D$68,MATCH('runtime data'!E$1&amp;'runtime data'!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0.21</v>
       </c>
       <c r="F8" s="1">
-        <f t="array" ref="F8">INDEX(output!$C$5:$C$68,MATCH(heatmap!F$1&amp;heatmap!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>7.8</v>
+        <f t="array" ref="F8">INDEX(output!$D$5:$D$68,MATCH('runtime data'!F$1&amp;'runtime data'!$A8,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>1.88</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -6886,20 +11766,20 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <f t="array" ref="B9">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A9,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>4.9000000000000004</v>
+        <f t="array" ref="B9">INDEX(output!$D$5:$D$68,MATCH('runtime data'!B$1&amp;'runtime data'!$A9,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <f t="array" ref="C9">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A9,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>6.86</v>
+        <f t="array" ref="C9">INDEX(output!$D$5:$D$68,MATCH('runtime data'!C$1&amp;'runtime data'!$A9,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <f t="array" ref="D9">INDEX(output!$C$5:$C$68,MATCH(heatmap!D$1&amp;heatmap!$A9,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>7.35</v>
+        <f t="array" ref="D9">INDEX(output!$D$5:$D$68,MATCH('runtime data'!D$1&amp;'runtime data'!$A9,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0.03</v>
       </c>
       <c r="E9" s="1">
-        <f t="array" ref="E9">INDEX(output!$C$5:$C$68,MATCH(heatmap!E$1&amp;heatmap!$A9,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>7.89</v>
+        <f t="array" ref="E9">INDEX(output!$D$5:$D$68,MATCH('runtime data'!E$1&amp;'runtime data'!$A9,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0.3</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -6912,16 +11792,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <f t="array" ref="B10">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A10,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>5.2</v>
+        <f t="array" ref="B10">INDEX(output!$D$5:$D$68,MATCH('runtime data'!B$1&amp;'runtime data'!$A10,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <f t="array" ref="C10">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A10,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>7.63</v>
+        <f t="array" ref="C10">INDEX(output!$D$5:$D$68,MATCH('runtime data'!C$1&amp;'runtime data'!$A10,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0.01</v>
       </c>
       <c r="D10" s="1">
-        <f t="array" ref="D10">INDEX(output!$C$5:$C$68,MATCH(heatmap!D$1&amp;heatmap!$A10,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>7.93</v>
+        <f t="array" ref="D10">INDEX(output!$D$5:$D$68,MATCH('runtime data'!D$1&amp;'runtime data'!$A10,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0.04</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -6935,12 +11815,12 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <f t="array" ref="B11">INDEX(output!$C$5:$C$68,MATCH(heatmap!B$1&amp;heatmap!$A11,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>5.17</v>
+        <f t="array" ref="B11">INDEX(output!$D$5:$D$68,MATCH('runtime data'!B$1&amp;'runtime data'!$A11,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <f t="array" ref="C11">INDEX(output!$C$5:$C$68,MATCH(heatmap!C$1&amp;heatmap!$A11,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
-        <v>6.69</v>
+        <f t="array" ref="C11">INDEX(output!$D$5:$D$68,MATCH('runtime data'!C$1&amp;'runtime data'!$A11,output!$B$5:$B$68&amp;output!$A$5:$A$68,0))</f>
+        <v>0.01</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -6957,292 +11837,304 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" ref="B16:B25" si="2">B2</f>
-        <v>1.5049999999999999</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" si="2"/>
-        <v>2.0139999999999998</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
         <f>C2</f>
-        <v>2.024</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f t="shared" si="2"/>
-        <v>2.4710000000000001</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ref="C18:C26" si="3">C3</f>
-        <v>2.637</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
         <f>D2</f>
-        <v>2.7010000000000001</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f t="shared" si="2"/>
-        <v>3.004</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="3"/>
-        <v>3.2909999999999999</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ref="D19:D26" si="4">D3</f>
-        <v>3.2709999999999999</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2">
         <f>E2</f>
-        <v>3.218</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f t="shared" si="2"/>
-        <v>3.49</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="3"/>
-        <v>3.992</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="4"/>
-        <v>3.927</v>
+        <v>1E-3</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ref="E20:E26" si="5">E3</f>
-        <v>3.948</v>
+        <v>1E-3</v>
       </c>
       <c r="F20" s="2">
         <f>F2</f>
-        <v>3.9039999999999999</v>
+        <v>1E-3</v>
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f t="shared" si="2"/>
-        <v>3.8679999999999999</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="3"/>
-        <v>4.5540000000000003</v>
+        <v>1E-3</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="4"/>
-        <v>4.5579999999999998</v>
+        <v>2E-3</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="5"/>
-        <v>4.57</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ref="F21:F26" si="6">F3</f>
-        <v>4.4420000000000002</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G21" s="2">
         <f>G2</f>
-        <v>4.4820000000000002</v>
+        <v>1E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <f t="shared" si="2"/>
-        <v>4.38</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="3"/>
-        <v>5.2050000000000001</v>
+        <v>1E-3</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="4"/>
-        <v>5.2590000000000003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="5"/>
-        <v>5.0830000000000002</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="6"/>
-        <v>5.07</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" ref="G22:G26" si="7">G3</f>
-        <v>4.96</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H22" s="2">
         <f>H2</f>
-        <v>5.07</v>
+        <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
       <c r="B23" s="2">
         <f t="shared" si="2"/>
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="3"/>
-        <v>6.03</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="4"/>
-        <v>6.0289999999999999</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="5"/>
-        <v>5.7590000000000003</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="6"/>
-        <v>5.5739999999999998</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="7"/>
-        <v>5.5570000000000004</v>
+        <v>0.123</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" ref="H23:H26" si="8">H3</f>
-        <v>5.34</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I23" s="2">
         <f>I2</f>
-        <v>5.57</v>
+        <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
       <c r="B24" s="2">
         <f t="shared" si="2"/>
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="3"/>
-        <v>6.86</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="4"/>
-        <v>7.07</v>
+        <v>0.02</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="5"/>
-        <v>6.415</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="6"/>
-        <v>6.2679999999999998</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="7"/>
-        <v>6.1470000000000002</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="8"/>
-        <v>6.11</v>
+        <v>0.92</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" ref="I24:I26" si="9">I3</f>
-        <v>6.19</v>
+        <v>0.43</v>
       </c>
       <c r="J24" s="2">
         <f>J2</f>
-        <v>6.1</v>
+        <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
       <c r="B25" s="2">
         <f t="shared" si="2"/>
-        <v>5.17</v>
+        <v>0</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="3"/>
-        <v>7.63</v>
+        <v>0.01</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="4"/>
-        <v>7.35</v>
+        <v>0.03</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="5"/>
-        <v>7.15</v>
+        <v>0.21</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="6"/>
-        <v>6.9210000000000003</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="7"/>
-        <v>6.6619999999999999</v>
+        <v>4.8490000000000002</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="8"/>
-        <v>6.58</v>
+        <v>5.56</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="9"/>
-        <v>6.44</v>
+        <v>5.47</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" ref="J25:J26" si="10">J3</f>
-        <v>6.3</v>
+        <v>1.05</v>
       </c>
       <c r="K25" s="2">
         <f>K2</f>
-        <v>6.31</v>
+        <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2">
         <f t="shared" si="3"/>
-        <v>6.69</v>
+        <v>0.01</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="4"/>
-        <v>7.93</v>
+        <v>0.04</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="5"/>
-        <v>7.89</v>
+        <v>0.3</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="6"/>
-        <v>7.8</v>
+        <v>1.88</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="7"/>
-        <v>7.351</v>
-      </c>
-      <c r="H26" s="2">
+        <v>8.36</v>
+      </c>
+      <c r="H26" s="4">
         <f t="shared" si="8"/>
-        <v>7.27</v>
-      </c>
-      <c r="I26" s="2">
+        <v>24.73</v>
+      </c>
+      <c r="I26" s="4">
         <f t="shared" si="9"/>
-        <v>7.26</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="10"/>
-        <v>7.08</v>
+        <v>21.66</v>
       </c>
       <c r="K26" s="2">
         <f>K3</f>
-        <v>6.98</v>
+        <v>4.18</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B5:I11 B2:K2 K3 B3:J4">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="B2:K2 K3 B3:I11 J3:J4">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
